--- a/data/99. analyzes/excel/pharmas/nach_offenlegung_2017.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_offenlegung_2017.xlsx
@@ -129,9 +129,6 @@
     <t>HRA Pharma</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Pierre Fabre</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -1422,28 +1422,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>684680.12</v>
+        <v>1750375</v>
       </c>
       <c r="C30" t="n">
-        <v>2938241.75</v>
+        <v>1150960</v>
       </c>
       <c r="D30" t="n">
-        <v>119529.39</v>
+        <v>23118</v>
       </c>
       <c r="E30" t="n">
-        <v>274217.93</v>
+        <v>63953</v>
       </c>
       <c r="F30" t="n">
-        <v>752367.96</v>
+        <v>331624</v>
       </c>
       <c r="G30" t="n">
-        <v>75625.23</v>
+        <v>16383</v>
       </c>
       <c r="H30" t="n">
-        <v>9026015.279999999</v>
+        <v>1291864</v>
       </c>
       <c r="I30" t="n">
-        <v>13870677.66</v>
+        <v>4628277</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1451,28 +1451,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>1750375</v>
+        <v>5000</v>
       </c>
       <c r="C31" t="n">
-        <v>1150960</v>
+        <v>394767.46</v>
       </c>
       <c r="D31" t="n">
-        <v>23118</v>
+        <v>5193.31</v>
       </c>
       <c r="E31" t="n">
-        <v>63953</v>
+        <v>59667.62</v>
       </c>
       <c r="F31" t="n">
-        <v>331624</v>
+        <v>35825.9</v>
       </c>
       <c r="G31" t="n">
-        <v>16383</v>
+        <v>1800.12</v>
       </c>
       <c r="H31" t="n">
-        <v>1291864</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4628277</v>
+        <v>502254.41</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1480,28 +1480,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>394767.46</v>
+        <v>318270</v>
       </c>
       <c r="D32" t="n">
-        <v>5193.31</v>
+        <v>30116</v>
       </c>
       <c r="E32" t="n">
-        <v>59667.62</v>
+        <v>77040</v>
       </c>
       <c r="F32" t="n">
-        <v>35825.9</v>
+        <v>95329</v>
       </c>
       <c r="G32" t="n">
-        <v>1800.12</v>
+        <v>322</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>33390.25</v>
       </c>
       <c r="I32" t="n">
-        <v>502254.41</v>
+        <v>554467.25</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1509,28 +1509,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1248442.04</v>
       </c>
       <c r="C33" t="n">
-        <v>318270</v>
+        <v>3136656.31</v>
       </c>
       <c r="D33" t="n">
-        <v>30116</v>
+        <v>94489.56</v>
       </c>
       <c r="E33" t="n">
-        <v>77040</v>
+        <v>363928.28</v>
       </c>
       <c r="F33" t="n">
-        <v>95329</v>
+        <v>742696.66</v>
       </c>
       <c r="G33" t="n">
-        <v>322</v>
+        <v>51612.89</v>
       </c>
       <c r="H33" t="n">
-        <v>33390.25</v>
+        <v>3436188.36</v>
       </c>
       <c r="I33" t="n">
-        <v>554467.25</v>
+        <v>9074014.1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>1248442.04</v>
+        <v>716</v>
       </c>
       <c r="C34" t="n">
-        <v>3136656.31</v>
+        <v>203541</v>
       </c>
       <c r="D34" t="n">
-        <v>94489.56</v>
+        <v>4389.05</v>
       </c>
       <c r="E34" t="n">
-        <v>363928.28</v>
+        <v>8831.84</v>
       </c>
       <c r="F34" t="n">
-        <v>742696.66</v>
+        <v>6700</v>
       </c>
       <c r="G34" t="n">
-        <v>51612.89</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3436188.36</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9074014.1</v>
+        <v>224177.89</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1567,28 +1567,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>203541</v>
+        <v>629252</v>
       </c>
       <c r="D35" t="n">
-        <v>4389.05</v>
+        <v>2821</v>
       </c>
       <c r="E35" t="n">
-        <v>8831.84</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6700</v>
+        <v>103995</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>224177.89</v>
+        <v>736522</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1596,28 +1596,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>5053933.61</v>
       </c>
       <c r="C36" t="n">
-        <v>629252</v>
+        <v>1209211.03</v>
       </c>
       <c r="D36" t="n">
-        <v>2821</v>
+        <v>46561.13</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>153702.88</v>
       </c>
       <c r="F36" t="n">
-        <v>103995</v>
+        <v>313360.72</v>
       </c>
       <c r="G36" t="n">
-        <v>454</v>
+        <v>4332.31</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>308176.92</v>
       </c>
       <c r="I36" t="n">
-        <v>736522</v>
+        <v>7089278.6</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1625,28 +1625,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>5053933.61</v>
+        <v>676329</v>
       </c>
       <c r="C37" t="n">
-        <v>1209211.03</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>46561.13</v>
+        <v>41753</v>
       </c>
       <c r="E37" t="n">
-        <v>153702.88</v>
+        <v>87263</v>
       </c>
       <c r="F37" t="n">
-        <v>313360.72</v>
+        <v>38331</v>
       </c>
       <c r="G37" t="n">
-        <v>4332.31</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>308176.92</v>
+        <v>118000</v>
       </c>
       <c r="I37" t="n">
-        <v>7089278.6</v>
+        <v>961676</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1654,28 +1654,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>676329</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>313215</v>
       </c>
       <c r="D38" t="n">
-        <v>41753</v>
+        <v>4840.8</v>
       </c>
       <c r="E38" t="n">
-        <v>87263</v>
+        <v>6331</v>
       </c>
       <c r="F38" t="n">
-        <v>38331</v>
+        <v>7200</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>118000</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>961676</v>
+        <v>331586.8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>313215</v>
+        <v>11800</v>
       </c>
       <c r="D39" t="n">
-        <v>4840.8</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>6331</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>7200</v>
+        <v>900</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>331586.8</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1712,28 +1712,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C40" t="n">
-        <v>11800</v>
+        <v>61024.6</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>892.9299999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>900</v>
+        <v>4345</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>60.54</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>15951</v>
       </c>
       <c r="I40" t="n">
-        <v>12700</v>
+        <v>87274.07000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1741,28 +1741,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>5000</v>
+        <v>3740958.59</v>
       </c>
       <c r="C41" t="n">
-        <v>61024.6</v>
+        <v>5846360.98</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>422733.63</v>
       </c>
       <c r="E41" t="n">
-        <v>892.9299999999999</v>
+        <v>61253.24</v>
       </c>
       <c r="F41" t="n">
-        <v>4345</v>
+        <v>1639963.53</v>
       </c>
       <c r="G41" t="n">
-        <v>60.54</v>
+        <v>46347.59</v>
       </c>
       <c r="H41" t="n">
-        <v>15951</v>
+        <v>8141826.61</v>
       </c>
       <c r="I41" t="n">
-        <v>87274.07000000001</v>
+        <v>19899444.17</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1770,28 +1770,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>3740958.59</v>
+        <v>1175869</v>
       </c>
       <c r="C42" t="n">
-        <v>5846360.98</v>
+        <v>196816</v>
       </c>
       <c r="D42" t="n">
-        <v>422733.63</v>
+        <v>95435</v>
       </c>
       <c r="E42" t="n">
-        <v>61253.24</v>
+        <v>299296</v>
       </c>
       <c r="F42" t="n">
-        <v>1639963.53</v>
+        <v>187631</v>
       </c>
       <c r="G42" t="n">
-        <v>46347.59</v>
+        <v>17226.6</v>
       </c>
       <c r="H42" t="n">
-        <v>8141826.61</v>
+        <v>424528</v>
       </c>
       <c r="I42" t="n">
-        <v>19899444.17</v>
+        <v>2396801.6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1799,28 +1799,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>1175869</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>196816</v>
+        <v>136866</v>
       </c>
       <c r="D43" t="n">
-        <v>95435</v>
+        <v>15341.68</v>
       </c>
       <c r="E43" t="n">
-        <v>299296</v>
+        <v>26596.4</v>
       </c>
       <c r="F43" t="n">
-        <v>187631</v>
+        <v>15435</v>
       </c>
       <c r="G43" t="n">
-        <v>17226.6</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>424528</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2396801.6</v>
+        <v>194239.08</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1831,25 +1831,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>136866</v>
+        <v>140962.8</v>
       </c>
       <c r="D44" t="n">
-        <v>15341.68</v>
+        <v>19832.16</v>
       </c>
       <c r="E44" t="n">
-        <v>26596.4</v>
+        <v>19408.93</v>
       </c>
       <c r="F44" t="n">
-        <v>15435</v>
+        <v>49574.65</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1250.86</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>28362.67</v>
       </c>
       <c r="I44" t="n">
-        <v>194239.08</v>
+        <v>259392.07</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1857,28 +1857,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1752470</v>
       </c>
       <c r="C45" t="n">
-        <v>140962.8</v>
+        <v>4789301</v>
       </c>
       <c r="D45" t="n">
-        <v>19832.16</v>
+        <v>85435</v>
       </c>
       <c r="E45" t="n">
-        <v>19408.93</v>
+        <v>310444</v>
       </c>
       <c r="F45" t="n">
-        <v>49574.65</v>
+        <v>571437</v>
       </c>
       <c r="G45" t="n">
-        <v>1250.86</v>
+        <v>10349</v>
       </c>
       <c r="H45" t="n">
-        <v>28362.67</v>
+        <v>2506402</v>
       </c>
       <c r="I45" t="n">
-        <v>259392.07</v>
+        <v>10025838</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1886,28 +1886,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>1752470</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4789301</v>
+        <v>125123.91</v>
       </c>
       <c r="D46" t="n">
-        <v>85435</v>
+        <v>58471.29</v>
       </c>
       <c r="E46" t="n">
-        <v>310444</v>
+        <v>26513.06</v>
       </c>
       <c r="F46" t="n">
-        <v>571437</v>
+        <v>10811.55</v>
       </c>
       <c r="G46" t="n">
-        <v>10349</v>
+        <v>400.93</v>
       </c>
       <c r="H46" t="n">
-        <v>2506402</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>10025838</v>
+        <v>221320.74</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1915,28 +1915,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>684680.12</v>
       </c>
       <c r="C47" t="n">
-        <v>125123.91</v>
+        <v>2938241.75</v>
       </c>
       <c r="D47" t="n">
-        <v>58471.29</v>
+        <v>119529.39</v>
       </c>
       <c r="E47" t="n">
-        <v>26513.06</v>
+        <v>274217.93</v>
       </c>
       <c r="F47" t="n">
-        <v>10811.55</v>
+        <v>752367.96</v>
       </c>
       <c r="G47" t="n">
-        <v>400.93</v>
+        <v>75625.23</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>9026015.279999999</v>
       </c>
       <c r="I47" t="n">
-        <v>221320.74</v>
+        <v>13870677.66</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3963,28 +3963,28 @@
         <v>66</v>
       </c>
       <c r="C55" t="n">
-        <v>55507.61</v>
+        <v>477262</v>
       </c>
       <c r="D55" t="n">
-        <v>1462.95</v>
+        <v>162446</v>
       </c>
       <c r="E55" t="n">
-        <v>11861.82</v>
+        <v>8549</v>
       </c>
       <c r="F55" t="n">
-        <v>26402.67</v>
+        <v>25200</v>
       </c>
       <c r="G55" t="n">
-        <v>69957</v>
+        <v>90165</v>
       </c>
       <c r="H55" t="n">
-        <v>3008.17</v>
+        <v>4026</v>
       </c>
       <c r="I55" t="n">
-        <v>9026015.279999999</v>
+        <v>1291864</v>
       </c>
       <c r="J55" t="n">
-        <v>9194215.5</v>
+        <v>2059512</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3993,28 +3993,28 @@
         <v>67</v>
       </c>
       <c r="C56" t="n">
-        <v>629172.51</v>
+        <v>1273113</v>
       </c>
       <c r="D56" t="n">
-        <v>2936778.8</v>
+        <v>988514</v>
       </c>
       <c r="E56" t="n">
-        <v>107667.57</v>
+        <v>14569</v>
       </c>
       <c r="F56" t="n">
-        <v>247815.26</v>
+        <v>38753</v>
       </c>
       <c r="G56" t="n">
-        <v>682410.96</v>
+        <v>241459</v>
       </c>
       <c r="H56" t="n">
-        <v>72617.06</v>
+        <v>12357</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4676462.16</v>
+        <v>2568765</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4025,28 +4025,28 @@
         <v>66</v>
       </c>
       <c r="C57" t="n">
-        <v>477262</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>162446</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>8549</v>
+        <v>163.17</v>
       </c>
       <c r="F57" t="n">
-        <v>25200</v>
+        <v>722.78</v>
       </c>
       <c r="G57" t="n">
-        <v>90165</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>4026</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1291864</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2059512</v>
+        <v>885.95</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4055,28 +4055,28 @@
         <v>67</v>
       </c>
       <c r="C58" t="n">
-        <v>1273113</v>
+        <v>5000</v>
       </c>
       <c r="D58" t="n">
-        <v>988514</v>
+        <v>394767.46</v>
       </c>
       <c r="E58" t="n">
-        <v>14569</v>
+        <v>5030.14</v>
       </c>
       <c r="F58" t="n">
-        <v>38753</v>
+        <v>58944.84</v>
       </c>
       <c r="G58" t="n">
-        <v>241459</v>
+        <v>35825.9</v>
       </c>
       <c r="H58" t="n">
-        <v>12357</v>
+        <v>1800.12</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2568765</v>
+        <v>501368.46</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>163.17</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>722.78</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>33390.25</v>
       </c>
       <c r="J59" t="n">
-        <v>885.95</v>
+        <v>33390.25</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4117,28 +4117,28 @@
         <v>67</v>
       </c>
       <c r="C60" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>394767.46</v>
+        <v>318270</v>
       </c>
       <c r="E60" t="n">
-        <v>5030.14</v>
+        <v>30116</v>
       </c>
       <c r="F60" t="n">
-        <v>58944.84</v>
+        <v>77040</v>
       </c>
       <c r="G60" t="n">
-        <v>35825.9</v>
+        <v>95329</v>
       </c>
       <c r="H60" t="n">
-        <v>1800.12</v>
+        <v>322</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>501368.46</v>
+        <v>521077</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4149,28 +4149,28 @@
         <v>66</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>64209.59</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>720819.03</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>48860.75</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>125327.96</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>255828.95</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>13967.87</v>
       </c>
       <c r="I61" t="n">
-        <v>33390.25</v>
+        <v>3436188.36</v>
       </c>
       <c r="J61" t="n">
-        <v>33390.25</v>
+        <v>4665202.51</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4179,28 +4179,28 @@
         <v>67</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1184232.45</v>
       </c>
       <c r="D62" t="n">
-        <v>318270</v>
+        <v>2415837.28</v>
       </c>
       <c r="E62" t="n">
-        <v>30116</v>
+        <v>45628.81</v>
       </c>
       <c r="F62" t="n">
-        <v>77040</v>
+        <v>238600.32</v>
       </c>
       <c r="G62" t="n">
-        <v>95329</v>
+        <v>486867.71</v>
       </c>
       <c r="H62" t="n">
-        <v>322</v>
+        <v>37645.02</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>521077</v>
+        <v>4408811.59</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4211,28 +4211,28 @@
         <v>66</v>
       </c>
       <c r="C63" t="n">
-        <v>64209.59</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>720819.03</v>
+        <v>160271</v>
       </c>
       <c r="E63" t="n">
-        <v>48860.75</v>
+        <v>4389.05</v>
       </c>
       <c r="F63" t="n">
-        <v>125327.96</v>
+        <v>8831.84</v>
       </c>
       <c r="G63" t="n">
-        <v>255828.95</v>
+        <v>3500</v>
       </c>
       <c r="H63" t="n">
-        <v>13967.87</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>3436188.36</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4665202.51</v>
+        <v>176991.89</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4241,28 +4241,28 @@
         <v>67</v>
       </c>
       <c r="C64" t="n">
-        <v>1184232.45</v>
+        <v>716</v>
       </c>
       <c r="D64" t="n">
-        <v>2415837.28</v>
+        <v>43270</v>
       </c>
       <c r="E64" t="n">
-        <v>45628.81</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>238600.32</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>486867.71</v>
+        <v>3200</v>
       </c>
       <c r="H64" t="n">
-        <v>37645.02</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4408811.59</v>
+        <v>47186</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4276,25 +4276,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>160271</v>
+        <v>1000</v>
       </c>
       <c r="E65" t="n">
-        <v>4389.05</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>8831.84</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>3500</v>
+        <v>8220</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>176991.89</v>
+        <v>9467</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4303,28 +4303,28 @@
         <v>67</v>
       </c>
       <c r="C66" t="n">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>43270</v>
+        <v>628252</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2821</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>3200</v>
+        <v>95775</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>47186</v>
+        <v>727055</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4338,25 +4338,25 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>19231.85</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>58064.69</v>
       </c>
       <c r="G67" t="n">
-        <v>8220</v>
+        <v>166292.99</v>
       </c>
       <c r="H67" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>308176.92</v>
       </c>
       <c r="J67" t="n">
-        <v>9467</v>
+        <v>551766.45</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4365,28 +4365,28 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>5053933.61</v>
       </c>
       <c r="D68" t="n">
-        <v>628252</v>
+        <v>1209211.03</v>
       </c>
       <c r="E68" t="n">
-        <v>2821</v>
+        <v>27329.28</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>95638.19</v>
       </c>
       <c r="G68" t="n">
-        <v>95775</v>
+        <v>147067.73</v>
       </c>
       <c r="H68" t="n">
-        <v>207</v>
+        <v>4332.31</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>727055</v>
+        <v>6537512.15</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4403,22 +4403,22 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>19231.85</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>58064.69</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>166292.99</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>308176.92</v>
+        <v>118000</v>
       </c>
       <c r="J69" t="n">
-        <v>551766.45</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4427,28 +4427,28 @@
         <v>67</v>
       </c>
       <c r="C70" t="n">
-        <v>5053933.61</v>
+        <v>676329</v>
       </c>
       <c r="D70" t="n">
-        <v>1209211.03</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>27329.28</v>
+        <v>41753</v>
       </c>
       <c r="F70" t="n">
-        <v>95638.19</v>
+        <v>87263</v>
       </c>
       <c r="G70" t="n">
-        <v>147067.73</v>
+        <v>38331</v>
       </c>
       <c r="H70" t="n">
-        <v>4332.31</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>6537512.15</v>
+        <v>843676</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -4471,16 +4471,16 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>118000</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>118000</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4489,19 +4489,19 @@
         <v>67</v>
       </c>
       <c r="C72" t="n">
-        <v>676329</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>293215</v>
       </c>
       <c r="E72" t="n">
-        <v>41753</v>
+        <v>4840.8</v>
       </c>
       <c r="F72" t="n">
-        <v>87263</v>
+        <v>6331</v>
       </c>
       <c r="G72" t="n">
-        <v>38331</v>
+        <v>700</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>843676</v>
+        <v>305086.8</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4518,93 +4518,93 @@
         <v>46</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11800</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>900</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6500</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>293215</v>
+        <v>38285</v>
       </c>
       <c r="E74" t="n">
-        <v>4840.8</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>6331</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>15951</v>
       </c>
       <c r="J74" t="n">
-        <v>305086.8</v>
+        <v>54986</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D75" t="n">
-        <v>11800</v>
+        <v>22739.6</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>892.9299999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>900</v>
+        <v>3595</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>60.54</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>12700</v>
+        <v>32288.07</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>38285</v>
+        <v>1000</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -4627,16 +4627,16 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>750</v>
+        <v>14389.37</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>15951</v>
+        <v>8141826.61</v>
       </c>
       <c r="J76" t="n">
-        <v>54986</v>
+        <v>8157215.98</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4645,28 +4645,28 @@
         <v>67</v>
       </c>
       <c r="C77" t="n">
-        <v>5000</v>
+        <v>3740958.59</v>
       </c>
       <c r="D77" t="n">
-        <v>22739.6</v>
+        <v>5845360.98</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>422733.63</v>
       </c>
       <c r="F77" t="n">
-        <v>892.9299999999999</v>
+        <v>61253.24</v>
       </c>
       <c r="G77" t="n">
-        <v>3595</v>
+        <v>1625574.16</v>
       </c>
       <c r="H77" t="n">
-        <v>60.54</v>
+        <v>46347.59</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>32288.07</v>
+        <v>11742228.19</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4677,28 +4677,28 @@
         <v>66</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="D78" t="n">
-        <v>1000</v>
+        <v>926</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>6636</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>48970</v>
       </c>
       <c r="G78" t="n">
-        <v>14389.37</v>
+        <v>52862</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>13375</v>
       </c>
       <c r="I78" t="n">
-        <v>8141826.61</v>
+        <v>424528</v>
       </c>
       <c r="J78" t="n">
-        <v>8157215.98</v>
+        <v>847297</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4707,28 +4707,28 @@
         <v>67</v>
       </c>
       <c r="C79" t="n">
-        <v>3740958.59</v>
+        <v>875869</v>
       </c>
       <c r="D79" t="n">
-        <v>5845360.98</v>
+        <v>195890</v>
       </c>
       <c r="E79" t="n">
-        <v>422733.63</v>
+        <v>88799</v>
       </c>
       <c r="F79" t="n">
-        <v>61253.24</v>
+        <v>250326</v>
       </c>
       <c r="G79" t="n">
-        <v>1625574.16</v>
+        <v>134769</v>
       </c>
       <c r="H79" t="n">
-        <v>46347.59</v>
+        <v>3851.6</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>11742228.19</v>
+        <v>1549504.6</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4739,28 +4739,28 @@
         <v>66</v>
       </c>
       <c r="C80" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>6636</v>
+        <v>3695.29</v>
       </c>
       <c r="F80" t="n">
-        <v>48970</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>52862</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>13375</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>424528</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>847297</v>
+        <v>3695.29</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4769,28 +4769,28 @@
         <v>67</v>
       </c>
       <c r="C81" t="n">
-        <v>875869</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>195890</v>
+        <v>136866</v>
       </c>
       <c r="E81" t="n">
-        <v>88799</v>
+        <v>11646.39</v>
       </c>
       <c r="F81" t="n">
-        <v>250326</v>
+        <v>26596.4</v>
       </c>
       <c r="G81" t="n">
-        <v>134769</v>
+        <v>15435</v>
       </c>
       <c r="H81" t="n">
-        <v>3851.6</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1549504.6</v>
+        <v>190543.79</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4807,22 +4807,22 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>3695.29</v>
+        <v>4509.38</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3520.68</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2624.65</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>458.86</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>28362.67</v>
       </c>
       <c r="J82" t="n">
-        <v>3695.29</v>
+        <v>39476.24</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4834,25 +4834,25 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>136866</v>
+        <v>140962.8</v>
       </c>
       <c r="E83" t="n">
-        <v>11646.39</v>
+        <v>15322.78</v>
       </c>
       <c r="F83" t="n">
-        <v>26596.4</v>
+        <v>15888.25</v>
       </c>
       <c r="G83" t="n">
-        <v>15435</v>
+        <v>46950</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>190543.79</v>
+        <v>219915.83</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4863,28 +4863,28 @@
         <v>66</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>350477</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>2122</v>
       </c>
       <c r="E84" t="n">
-        <v>4509.38</v>
+        <v>16328</v>
       </c>
       <c r="F84" t="n">
-        <v>3520.68</v>
+        <v>108298</v>
       </c>
       <c r="G84" t="n">
-        <v>2624.65</v>
+        <v>12795</v>
       </c>
       <c r="H84" t="n">
-        <v>458.86</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>28362.67</v>
+        <v>2506402</v>
       </c>
       <c r="J84" t="n">
-        <v>39476.24</v>
+        <v>2996422</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4893,28 +4893,28 @@
         <v>67</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1401993</v>
       </c>
       <c r="D85" t="n">
-        <v>140962.8</v>
+        <v>4787179</v>
       </c>
       <c r="E85" t="n">
-        <v>15322.78</v>
+        <v>69107</v>
       </c>
       <c r="F85" t="n">
-        <v>15888.25</v>
+        <v>202146</v>
       </c>
       <c r="G85" t="n">
-        <v>46950</v>
+        <v>558642</v>
       </c>
       <c r="H85" t="n">
-        <v>792</v>
+        <v>10349</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>219915.83</v>
+        <v>7029416</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4925,28 +4925,28 @@
         <v>66</v>
       </c>
       <c r="C86" t="n">
-        <v>350477</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>2122</v>
+        <v>14679.11</v>
       </c>
       <c r="E86" t="n">
-        <v>16328</v>
+        <v>389.23</v>
       </c>
       <c r="F86" t="n">
-        <v>108298</v>
+        <v>1710.07</v>
       </c>
       <c r="G86" t="n">
-        <v>12795</v>
+        <v>6111.55</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>400.93</v>
       </c>
       <c r="I86" t="n">
-        <v>2506402</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2996422</v>
+        <v>23290.89</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4955,28 +4955,28 @@
         <v>67</v>
       </c>
       <c r="C87" t="n">
-        <v>1401993</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>4787179</v>
+        <v>110444.8</v>
       </c>
       <c r="E87" t="n">
-        <v>69107</v>
+        <v>58082.06</v>
       </c>
       <c r="F87" t="n">
-        <v>202146</v>
+        <v>24802.99</v>
       </c>
       <c r="G87" t="n">
-        <v>558642</v>
+        <v>4700</v>
       </c>
       <c r="H87" t="n">
-        <v>10349</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>7029416</v>
+        <v>198029.85</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4987,28 +4987,28 @@
         <v>66</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>55507.61</v>
       </c>
       <c r="D88" t="n">
-        <v>14679.11</v>
+        <v>1462.95</v>
       </c>
       <c r="E88" t="n">
-        <v>389.23</v>
+        <v>11861.82</v>
       </c>
       <c r="F88" t="n">
-        <v>1710.07</v>
+        <v>26402.67</v>
       </c>
       <c r="G88" t="n">
-        <v>6111.55</v>
+        <v>69957</v>
       </c>
       <c r="H88" t="n">
-        <v>400.93</v>
+        <v>3008.17</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>9026015.279999999</v>
       </c>
       <c r="J88" t="n">
-        <v>23290.89</v>
+        <v>9194215.5</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5017,28 +5017,28 @@
         <v>67</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>629172.51</v>
       </c>
       <c r="D89" t="n">
-        <v>110444.8</v>
+        <v>2936778.8</v>
       </c>
       <c r="E89" t="n">
-        <v>58082.06</v>
+        <v>107667.57</v>
       </c>
       <c r="F89" t="n">
-        <v>24802.99</v>
+        <v>247815.26</v>
       </c>
       <c r="G89" t="n">
-        <v>4700</v>
+        <v>682410.96</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>72617.06</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>198029.85</v>
+        <v>4676462.16</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5727,7 +5727,7 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A81"/>
